--- a/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/Tables24-30.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/Tables24-30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED542E7-8815-3C4C-A0EF-8184B866A0D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDDE3B2-526C-1546-8ED6-2CDD18044B32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22480" yWindow="500" windowWidth="26860" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22480" yWindow="460" windowWidth="26860" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="139">
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Pounds</t>
-  </si>
-  <si>
     <t>port</t>
   </si>
   <si>
@@ -437,6 +431,12 @@
   </si>
   <si>
     <t xml:space="preserve">Spiny lobster </t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>pounds</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
   <dimension ref="A1:E396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,27 +827,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2">
         <v>3454569</v>
@@ -858,13 +858,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>535040</v>
@@ -875,13 +875,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>264497</v>
@@ -892,13 +892,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>244054</v>
@@ -909,13 +909,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
         <v>87703</v>
@@ -926,13 +926,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <v>72296</v>
@@ -943,13 +943,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>69024</v>
@@ -960,13 +960,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <v>68041</v>
@@ -977,13 +977,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
         <v>48061</v>
@@ -994,13 +994,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
         <v>9065</v>
@@ -1011,13 +1011,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>8007</v>
@@ -1028,13 +1028,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>6151</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
         <v>13702</v>
@@ -1062,13 +1062,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>1425641</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D16" s="5">
         <f>SUM(D3:D14)-D15</f>
@@ -1092,13 +1092,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
         <v>356491</v>
@@ -1109,13 +1109,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
         <v>106735</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2">
         <v>94341</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2">
         <v>61151</v>
@@ -1160,13 +1160,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2">
         <v>53784</v>
@@ -1177,13 +1177,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2">
         <v>43194</v>
@@ -1194,13 +1194,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
         <v>19642</v>
@@ -1211,13 +1211,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2">
         <v>15777</v>
@@ -1228,13 +1228,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2">
         <v>751115</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D26" s="5">
         <f>SUM(D17:D24)-D25</f>
@@ -1258,13 +1258,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
         <v>188313</v>
@@ -1275,13 +1275,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
         <v>144563</v>
@@ -1292,13 +1292,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2">
         <v>85199</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2">
         <v>55064</v>
@@ -1326,13 +1326,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2">
         <v>48119</v>
@@ -1343,13 +1343,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2">
         <v>25830</v>
@@ -1360,13 +1360,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2">
         <v>18439</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2">
         <v>3117</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2">
         <v>9935</v>
@@ -1411,13 +1411,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2">
         <v>578579</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C37" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D37" s="5">
         <f>SUM(D27:D35)-D36</f>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2">
         <v>198844</v>
@@ -1458,13 +1458,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2">
         <v>197697</v>
@@ -1475,13 +1475,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2">
         <v>21332</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2">
         <v>8614</v>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2">
         <v>6848</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2">
         <v>13375</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2">
         <v>446710</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="5">
         <f>SUM(D38:D43)-D44</f>
@@ -1573,13 +1573,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="2">
         <v>99730</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2">
         <v>14650</v>
@@ -1607,13 +1607,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2">
         <v>1367</v>
@@ -1624,13 +1624,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2">
         <v>115747</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C50" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D50" s="5">
         <f>SUM(D46:D48)-D49</f>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" s="2">
         <v>98666</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D52" s="2">
         <v>1710</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2">
         <v>658</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2">
         <v>101034</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C55" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D55" s="5">
         <f>SUM(D51:D53)-D54</f>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" s="2">
         <v>19363</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D57" s="2">
         <v>7366</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2">
         <v>5698</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2">
         <v>32427</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C60" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D60" s="5">
         <f>SUM(D56:D58)-D59</f>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2">
         <v>3316</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2">
         <v>3316</v>
@@ -1850,17 +1850,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C63" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D64" s="2">
         <v>592634</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" s="2">
         <v>282586</v>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2">
         <v>22948</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2">
         <v>18795</v>
@@ -1922,13 +1922,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2">
         <v>8972</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2">
         <v>70</v>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2">
         <v>333371</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C71" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D71" s="5">
         <f>SUM(D65:D69)-D70</f>
@@ -1986,13 +1986,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" s="2">
         <v>105480</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2">
         <v>11427</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2">
         <v>2446</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2">
         <v>1376</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D76" s="2">
         <v>221</v>
@@ -2071,13 +2071,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2">
         <v>120950</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C78" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D78" s="5">
         <f>SUM(D72:D76)-D77</f>
@@ -2101,13 +2101,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" s="2">
         <v>56734</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2">
         <v>13378</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D81" s="2">
         <v>2063</v>
@@ -2152,13 +2152,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2">
         <v>72175</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C83" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D83" s="5">
         <f>SUM(D79:D81)-D82</f>
@@ -2182,13 +2182,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2">
         <v>22504</v>
@@ -2199,13 +2199,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2">
         <v>22501</v>
@@ -2216,20 +2216,20 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C86" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" s="2">
         <v>21125</v>
@@ -2240,13 +2240,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88" s="2">
         <v>868</v>
@@ -2257,13 +2257,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2">
         <v>21993</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C90" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D90" s="5">
         <f>SUM(D87:D88)-D89</f>
@@ -2287,13 +2287,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2">
         <v>7843</v>
@@ -2304,13 +2304,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2">
         <v>1775</v>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2">
         <v>9618</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C94" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D94" s="5">
         <f>SUM(D91:D92)-D93</f>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2">
         <v>4596</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2">
         <v>4596</v>
@@ -2385,20 +2385,20 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C97" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2">
         <v>7046</v>
@@ -2409,13 +2409,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2">
         <v>381</v>
@@ -2426,13 +2426,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2">
         <v>7427</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C101" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D101" s="5">
         <f>SUM(D98:D99)-D100</f>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D102" s="2">
         <v>12494165</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D103" s="2">
         <v>535590</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D104" s="2">
         <v>437909</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D105" s="2">
         <v>180632</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D106" s="2">
         <v>158676</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D107" s="2">
         <v>127354</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D108" s="2">
         <v>77953</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>28608</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D110" s="2">
         <v>21149</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>19338</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>14037</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D113" s="2">
         <v>12013</v>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D114" s="2">
         <v>11302</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2">
         <v>10878</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D116" s="2">
         <v>45062</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2">
         <v>1680501</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C118" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D118" s="5">
         <f>SUM(D103:D116)-D117</f>
@@ -2738,13 +2738,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D119" s="2">
         <v>218006</v>
@@ -2755,13 +2755,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D120" s="2">
         <v>75372</v>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D121" s="2">
         <v>60861</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D122" s="2">
         <v>41061</v>
@@ -2806,13 +2806,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D123" s="2">
         <v>33212</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D124" s="2">
         <v>6643</v>
@@ -2840,13 +2840,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>14205</v>
@@ -2857,13 +2857,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2">
         <v>449360</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C127" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D127" s="5">
         <f>SUM(D119:D125)-D126</f>
@@ -2887,13 +2887,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D128" s="2">
         <v>60547</v>
@@ -2904,13 +2904,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D129" s="2">
         <v>27997</v>
@@ -2921,13 +2921,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D130" s="2">
         <v>22777</v>
@@ -2938,13 +2938,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D131" s="2">
         <v>16517</v>
@@ -2955,13 +2955,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>7709</v>
@@ -2972,13 +2972,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D133" s="2">
         <v>5707</v>
@@ -2989,13 +2989,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D134" s="2">
         <v>14070</v>
@@ -3006,13 +3006,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2">
         <v>155324</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C136" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D136" s="5">
         <f>SUM(D128:D134)-D135</f>
@@ -3036,13 +3036,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D137" s="2">
         <v>47870</v>
@@ -3053,13 +3053,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D138" s="2">
         <v>12679</v>
@@ -3070,13 +3070,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>6093</v>
@@ -3087,13 +3087,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D140" s="2">
         <v>6069</v>
@@ -3104,13 +3104,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D141" s="2">
         <v>5634</v>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2">
         <v>78345</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C143" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D143" s="5">
         <f>SUM(D137:D141)-D142</f>
@@ -3151,13 +3151,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D144" s="2">
         <v>53531</v>
@@ -3168,13 +3168,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D145" s="2">
         <v>5979</v>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D146" s="2">
         <v>2658</v>
@@ -3202,13 +3202,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D147" s="2">
         <v>538</v>
@@ -3219,13 +3219,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2">
         <v>62706</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C149" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D149" s="5">
         <f>SUM(D144:D147)-D148</f>
@@ -3249,13 +3249,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D150" s="2">
         <v>13180</v>
@@ -3266,13 +3266,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D151" s="2">
         <v>1583</v>
@@ -3283,13 +3283,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2">
         <v>14763</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C153" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D153" s="5">
         <f>SUM(D150:D151)-D152</f>
@@ -3313,13 +3313,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D154" s="2">
         <v>11092</v>
@@ -3330,13 +3330,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2">
         <v>11092</v>
@@ -3347,20 +3347,20 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C156" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D157" s="2">
         <v>42074</v>
@@ -3371,13 +3371,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2">
         <v>42074</v>
@@ -3388,17 +3388,17 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C159" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D160" s="2">
         <v>15173420</v>
@@ -3409,13 +3409,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D161" s="2">
         <v>2889239</v>
@@ -3426,13 +3426,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D162" s="2">
         <v>539825</v>
@@ -3443,13 +3443,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D163" s="2">
         <v>501382</v>
@@ -3460,13 +3460,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D164" s="2">
         <v>254395</v>
@@ -3477,13 +3477,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D165" s="2">
         <v>240008</v>
@@ -3494,13 +3494,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D166" s="2">
         <v>97767</v>
@@ -3511,13 +3511,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D167" s="2">
         <v>48640</v>
@@ -3528,13 +3528,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D168" s="2">
         <v>15537</v>
@@ -3545,13 +3545,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D169" s="2">
         <v>11271</v>
@@ -3562,13 +3562,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D170" s="2">
         <v>7721</v>
@@ -3579,13 +3579,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D171" s="2">
         <v>6491</v>
@@ -3596,13 +3596,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D172" s="2">
         <v>6140</v>
@@ -3613,13 +3613,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D173" s="2">
         <v>5971</v>
@@ -3630,13 +3630,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D174" s="2">
         <v>5731</v>
@@ -3647,13 +3647,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>5256</v>
@@ -3664,13 +3664,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D176" s="2">
         <v>17911</v>
@@ -3681,13 +3681,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2">
         <v>4653285</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C178" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D178" s="5">
         <f>SUM(D161:D176)-D177</f>
@@ -3711,13 +3711,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D179" s="2">
         <v>80105</v>
@@ -3728,13 +3728,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D180" s="2">
         <v>50541</v>
@@ -3745,13 +3745,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D181" s="2">
         <v>33016</v>
@@ -3762,13 +3762,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D182" s="2">
         <v>22139</v>
@@ -3779,13 +3779,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D183" s="2">
         <v>15593</v>
@@ -3796,13 +3796,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D184" s="2">
         <v>14766</v>
@@ -3813,13 +3813,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D185" s="2">
         <v>11570</v>
@@ -3830,13 +3830,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D186" s="2">
         <v>10018</v>
@@ -3847,13 +3847,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D187" s="2">
         <v>9652</v>
@@ -3864,13 +3864,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D188" s="2">
         <v>8884</v>
@@ -3881,13 +3881,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D189" s="2">
         <v>26075</v>
@@ -3898,13 +3898,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D190" s="2">
         <v>282359</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C191" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D191" s="5">
         <f>SUM(D179:D189)-D190</f>
@@ -3928,13 +3928,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D192" s="2">
         <v>192170</v>
@@ -3945,13 +3945,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D193" s="2">
         <v>17287</v>
@@ -3962,13 +3962,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D194" s="2">
         <v>12812</v>
@@ -3979,13 +3979,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D195" s="2">
         <v>7766</v>
@@ -3996,13 +3996,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D196" s="2">
         <v>7741</v>
@@ -4013,13 +4013,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D197" s="2">
         <v>237776</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C198" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D198" s="5">
         <f>SUM(D192:D196)-D197</f>
@@ -4043,10 +4043,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D199" s="2">
         <v>1895533</v>
@@ -4057,13 +4057,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D200" s="2">
         <v>830008</v>
@@ -4074,13 +4074,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D201" s="2">
         <v>165319</v>
@@ -4091,13 +4091,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D202" s="2">
         <v>28904</v>
@@ -4108,13 +4108,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D203" s="2">
         <v>17560</v>
@@ -4125,13 +4125,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D204" s="2">
         <v>1041791</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C205" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D205" s="5">
         <f>SUM(D200:D203)-D204</f>
@@ -4155,13 +4155,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>145073</v>
@@ -4172,13 +4172,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D207" s="2">
         <v>128696</v>
@@ -4189,13 +4189,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D208" s="2">
         <v>85088</v>
@@ -4206,13 +4206,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D209" s="2">
         <v>58478</v>
@@ -4223,13 +4223,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D210" s="2">
         <v>40278</v>
@@ -4240,13 +4240,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D211" s="2">
         <v>39318</v>
@@ -4257,13 +4257,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D212" s="2">
         <v>21535</v>
@@ -4274,13 +4274,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D213" s="2">
         <v>16778</v>
@@ -4291,13 +4291,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D214" s="2">
         <v>6556</v>
@@ -4308,13 +4308,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D215" s="2">
         <v>10059</v>
@@ -4325,13 +4325,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D216" s="2">
         <v>551859</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C217" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D217" s="5">
         <f>SUM(D206:D215)-D216</f>
@@ -4355,13 +4355,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D218" s="2">
         <v>63589</v>
@@ -4372,13 +4372,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D219" s="2">
         <v>28485</v>
@@ -4389,13 +4389,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D220" s="2">
         <v>10366</v>
@@ -4406,13 +4406,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D221" s="2">
         <v>6545</v>
@@ -4423,13 +4423,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D222" s="2">
         <v>108985</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C223" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D223" s="5">
         <f>SUM(D218:D221)-D222</f>
@@ -4453,13 +4453,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D224" s="2">
         <v>31408</v>
@@ -4470,13 +4470,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D225" s="2">
         <v>20818</v>
@@ -4487,13 +4487,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D226" s="2">
         <v>10652</v>
@@ -4504,13 +4504,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D227" s="2">
         <v>8609</v>
@@ -4521,13 +4521,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D228" s="2">
         <v>5663</v>
@@ -4538,13 +4538,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D229" s="2">
         <v>5649</v>
@@ -4555,13 +4555,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D230" s="2">
         <v>6164</v>
@@ -4572,13 +4572,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D231" s="2">
         <v>88963</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C232" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D232" s="5">
         <f>SUM(D224:D230)-D231</f>
@@ -4602,13 +4602,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D233" s="2">
         <v>36123</v>
@@ -4619,13 +4619,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D234" s="2">
         <v>121</v>
@@ -4636,13 +4636,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D235" s="2">
         <v>36244</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C236" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D236" s="5">
         <f>SUM(D233:D234)-D235</f>
@@ -4666,13 +4666,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D237" s="2">
         <v>32519</v>
@@ -4683,13 +4683,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D238" s="2">
         <v>3099</v>
@@ -4700,13 +4700,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D239" s="2">
         <v>35618</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C240" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D240" s="5">
         <f>SUM(D237:D238)-D239</f>
@@ -4730,13 +4730,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D241" s="2">
         <v>17557</v>
@@ -4747,13 +4747,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D242" s="2">
         <v>160</v>
@@ -4764,13 +4764,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D243" s="2">
         <v>17717</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C244" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D244" s="5">
         <f>SUM(D241:D242)-D243</f>
@@ -4794,13 +4794,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D245" s="2">
         <v>14356</v>
@@ -4811,13 +4811,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D246" s="2">
         <v>14556</v>
@@ -4828,17 +4828,17 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C247" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D248" s="2">
         <v>29180241</v>
@@ -4849,13 +4849,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D249" s="2">
         <v>8441263</v>
@@ -4866,13 +4866,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D250" s="2">
         <v>3807628</v>
@@ -4883,13 +4883,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D251" s="2">
         <v>1714266</v>
@@ -4900,13 +4900,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D252" s="2">
         <v>1692345</v>
@@ -4917,13 +4917,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D253" s="2">
         <v>981365</v>
@@ -4934,13 +4934,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D254" s="2">
         <v>829969</v>
@@ -4951,13 +4951,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D255" s="2">
         <v>606027</v>
@@ -4968,13 +4968,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D256" s="2">
         <v>528417</v>
@@ -4985,13 +4985,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D257" s="2">
         <v>261683</v>
@@ -5002,13 +5002,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D258" s="2">
         <v>32039</v>
@@ -5019,13 +5019,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D259" s="2">
         <v>18895002</v>
@@ -5037,7 +5037,7 @@
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="C260" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D260" s="5">
         <f>SUM(D249:D258)-D259</f>
@@ -5050,13 +5050,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D261" s="2">
         <v>1312536</v>
@@ -5067,13 +5067,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D262" s="2">
         <v>1158897</v>
@@ -5084,13 +5084,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D263" s="2">
         <v>298360</v>
@@ -5101,13 +5101,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D264" s="2">
         <v>263286</v>
@@ -5118,13 +5118,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D265" s="2">
         <v>244560</v>
@@ -5135,13 +5135,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D266" s="2">
         <v>241230</v>
@@ -5152,13 +5152,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D267" s="2">
         <v>198031</v>
@@ -5169,13 +5169,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D268" s="2">
         <v>152501</v>
@@ -5186,13 +5186,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D269" s="2">
         <v>144369</v>
@@ -5203,13 +5203,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D270" s="2">
         <v>15779</v>
@@ -5220,13 +5220,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D271" s="2">
         <v>6160</v>
@@ -5237,13 +5237,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D272" s="2">
         <v>2246</v>
@@ -5254,13 +5254,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D273" s="2">
         <v>3411</v>
@@ -5271,13 +5271,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D274" s="2">
         <v>4041366</v>
@@ -5289,7 +5289,7 @@
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="C275" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D275" s="5">
         <f>SUM(D261:D273)-D274</f>
@@ -5302,13 +5302,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D276" s="2">
         <v>1100688</v>
@@ -5319,13 +5319,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D277" s="2">
         <v>796746</v>
@@ -5336,13 +5336,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D278" s="2">
         <v>393032</v>
@@ -5353,13 +5353,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D279" s="2">
         <v>254563</v>
@@ -5370,13 +5370,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D280" s="2">
         <v>224775</v>
@@ -5387,13 +5387,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D281" s="2">
         <v>136188</v>
@@ -5404,13 +5404,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D282" s="2">
         <v>117662</v>
@@ -5421,13 +5421,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D283" s="2">
         <v>103388</v>
@@ -5438,13 +5438,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D284" s="2">
         <v>72683</v>
@@ -5455,13 +5455,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D285" s="2">
         <v>9627</v>
@@ -5472,13 +5472,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D286" s="2">
         <v>3209352</v>
@@ -5490,7 +5490,7 @@
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="C287" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D287" s="5">
         <f>SUM(D276:D285)-D286</f>
@@ -5503,13 +5503,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D288" s="2">
         <v>582508</v>
@@ -5520,13 +5520,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D289" s="2">
         <v>230586</v>
@@ -5537,13 +5537,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D290" s="2">
         <v>207329</v>
@@ -5554,13 +5554,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D291" s="2">
         <v>115261</v>
@@ -5571,13 +5571,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D292" s="2">
         <v>48707</v>
@@ -5588,13 +5588,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D293" s="2">
         <v>33543</v>
@@ -5605,13 +5605,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D294" s="2">
         <v>32710</v>
@@ -5622,13 +5622,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D295" s="2">
         <v>32576</v>
@@ -5639,13 +5639,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D296" s="2">
         <v>21202</v>
@@ -5656,13 +5656,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D297" s="2">
         <v>20105</v>
@@ -5673,13 +5673,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D298" s="2">
         <v>18475</v>
@@ -5690,13 +5690,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D299" s="2">
         <v>16132</v>
@@ -5707,13 +5707,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D300" s="2">
         <v>12235</v>
@@ -5724,13 +5724,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D301" s="2">
         <v>37532</v>
@@ -5741,13 +5741,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D302" s="2">
         <v>1408901</v>
@@ -5759,7 +5759,7 @@
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="C303" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D303" s="5">
         <f>SUM(D288:D301)-D302</f>
@@ -5772,13 +5772,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C304" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D304" s="2">
         <v>180247</v>
@@ -5789,13 +5789,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C305" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D305" s="2">
         <v>147263</v>
@@ -5806,13 +5806,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C306" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D306" s="2">
         <v>142147</v>
@@ -5823,13 +5823,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C307" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D307" s="2">
         <v>126013</v>
@@ -5840,13 +5840,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C308" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D308" s="2">
         <v>72215</v>
@@ -5857,13 +5857,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C309" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D309" s="2">
         <v>57973</v>
@@ -5874,13 +5874,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C310" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D310" s="2">
         <v>55403</v>
@@ -5891,13 +5891,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C311" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D311" s="2">
         <v>54692</v>
@@ -5908,13 +5908,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C312" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D312" s="2">
         <v>42854</v>
@@ -5925,13 +5925,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C313" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D313" s="2">
         <v>35686</v>
@@ -5942,13 +5942,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C314" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D314" s="2">
         <v>29633</v>
@@ -5959,13 +5959,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C315" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D315" s="2">
         <v>29515</v>
@@ -5976,13 +5976,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C316" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D316" s="2">
         <v>28200</v>
@@ -5993,13 +5993,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C317" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D317" s="2">
         <v>25413</v>
@@ -6010,13 +6010,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C318" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D318" s="2">
         <v>19678</v>
@@ -6027,13 +6027,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C319" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D319" s="2">
         <v>18119</v>
@@ -6044,13 +6044,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C320" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D320" s="2">
         <v>17187</v>
@@ -6061,13 +6061,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C321" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D321" s="2">
         <v>16853</v>
@@ -6078,13 +6078,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C322" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D322" s="2">
         <v>12410</v>
@@ -6095,13 +6095,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C323" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D323" s="2">
         <v>11907</v>
@@ -6112,13 +6112,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C324" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D324" s="2">
         <v>11082</v>
@@ -6129,13 +6129,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C325" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D325" s="2">
         <v>10752</v>
@@ -6146,13 +6146,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C326" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D326" s="2">
         <v>39365</v>
@@ -6163,13 +6163,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C327" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D327" s="2">
         <v>1184607</v>
@@ -6181,7 +6181,7 @@
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
       <c r="C328" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D328" s="5">
         <f>SUM(D304:D326)-D327</f>
@@ -6194,13 +6194,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D329" s="2">
         <v>109879</v>
@@ -6211,13 +6211,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D330" s="2">
         <v>83112</v>
@@ -6228,13 +6228,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D331" s="2">
         <v>33670</v>
@@ -6245,13 +6245,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D332" s="2">
         <v>22989</v>
@@ -6262,13 +6262,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D333" s="2">
         <v>14735</v>
@@ -6279,13 +6279,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D334" s="2">
         <v>11563</v>
@@ -6296,13 +6296,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D335" s="2">
         <v>9067</v>
@@ -6313,13 +6313,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D336" s="2">
         <v>6299</v>
@@ -6330,13 +6330,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D337" s="2">
         <v>6267</v>
@@ -6347,13 +6347,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D338" s="2">
         <v>6211</v>
@@ -6364,13 +6364,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D339" s="2">
         <v>6115</v>
@@ -6381,13 +6381,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D340" s="2">
         <v>17018</v>
@@ -6398,13 +6398,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D341" s="2">
         <v>326925</v>
@@ -6416,7 +6416,7 @@
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
       <c r="C342" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D342" s="5">
         <f>SUM(D329:D340)-D341</f>
@@ -6429,13 +6429,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D343" s="2">
         <v>27778</v>
@@ -6446,13 +6446,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D344" s="2">
         <v>6615</v>
@@ -6463,13 +6463,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D345" s="2">
         <v>4210</v>
@@ -6480,13 +6480,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D346" s="2">
         <v>2941</v>
@@ -6497,13 +6497,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D347" s="2">
         <v>2800</v>
@@ -6514,13 +6514,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D348" s="2">
         <v>2009</v>
@@ -6531,13 +6531,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D349" s="2">
         <v>12644</v>
@@ -6548,13 +6548,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D350" s="2">
         <v>58997</v>
@@ -6566,7 +6566,7 @@
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="3"/>
       <c r="C351" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D351" s="5">
         <f>SUM(D343:D349)-D350</f>
@@ -6579,13 +6579,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D352" s="2">
         <v>10866</v>
@@ -6596,13 +6596,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D353" s="2">
         <v>5560</v>
@@ -6613,13 +6613,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D354" s="2">
         <v>3428</v>
@@ -6630,13 +6630,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D355" s="2">
         <v>2802</v>
@@ -6647,13 +6647,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D356" s="2">
         <v>5195</v>
@@ -6664,13 +6664,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D357" s="2">
         <v>27851</v>
@@ -6682,7 +6682,7 @@
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="3"/>
       <c r="C358" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D358" s="5">
         <f>SUM(D352:D356)-D357</f>
@@ -6695,13 +6695,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D359" s="2">
         <v>27240</v>
@@ -6712,13 +6712,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D360" s="2">
         <v>27240</v>
@@ -6729,17 +6729,17 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C361" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D362" s="2">
         <v>37766409</v>
@@ -6750,13 +6750,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D363" s="2">
         <v>18482255</v>
@@ -6767,13 +6767,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D364" s="2">
         <v>6136416</v>
@@ -6784,13 +6784,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D365" s="2">
         <v>6058106</v>
@@ -6801,13 +6801,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D366" s="2">
         <v>328981</v>
@@ -6818,13 +6818,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D367" s="2">
         <v>266871</v>
@@ -6835,13 +6835,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D368" s="2">
         <v>148891</v>
@@ -6852,13 +6852,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D369" s="2">
         <v>98348</v>
@@ -6869,13 +6869,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D370" s="2">
         <v>87880</v>
@@ -6886,13 +6886,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D371" s="2">
         <v>68387</v>
@@ -6903,13 +6903,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D372" s="2">
         <v>53023</v>
@@ -6920,13 +6920,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D373" s="2">
         <v>44019</v>
@@ -6937,13 +6937,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D374" s="2">
         <v>25245</v>
@@ -6954,13 +6954,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D375" s="2">
         <v>16924</v>
@@ -6971,13 +6971,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D376" s="2">
         <v>15504</v>
@@ -6988,13 +6988,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D377" s="2">
         <v>10919</v>
@@ -7005,13 +7005,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D378" s="2">
         <v>10056</v>
@@ -7022,13 +7022,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D379" s="2">
         <v>9248</v>
@@ -7039,13 +7039,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D380" s="2">
         <v>8114</v>
@@ -7056,13 +7056,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D381" s="2">
         <v>24375</v>
@@ -7073,13 +7073,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D382" s="2">
         <v>31893562</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C383" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D383" s="5">
         <f>SUM(D363:D381)-D382</f>
@@ -7103,13 +7103,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B384" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C384" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D384" s="2">
         <v>3397166</v>
@@ -7120,13 +7120,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B385" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C385" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D385" s="2">
         <v>1427426</v>
@@ -7137,13 +7137,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C386" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D386" s="2">
         <v>978029</v>
@@ -7154,13 +7154,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B387" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C387" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D387" s="2">
         <v>28921</v>
@@ -7171,13 +7171,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B388" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B388" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C388" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D388" s="2">
         <v>4963</v>
@@ -7188,13 +7188,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B389" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C389" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D389" s="2">
         <v>5836505</v>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C390" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D390" s="5">
         <f>SUM(D384:D388)-D389</f>
@@ -7218,13 +7218,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D391" s="2">
         <v>16453</v>
@@ -7235,13 +7235,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D392" s="2">
         <v>16453</v>
@@ -7252,20 +7252,20 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C393" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D394" s="2">
         <v>19889</v>
@@ -7276,13 +7276,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D395" s="2">
         <v>19889</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C396" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/Tables24-30.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/Tables24-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDDE3B2-526C-1546-8ED6-2CDD18044B32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDD493-ED7C-0E4A-A4F4-AC63CF45F9CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22480" yWindow="460" windowWidth="26860" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="139">
   <si>
     <t>port</t>
   </si>
@@ -487,13 +487,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,8 +847,11 @@
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2">
         <v>3454569</v>
@@ -1078,6 +1082,12 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>131</v>
       </c>
@@ -1231,7 +1241,7 @@
         <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -1244,6 +1254,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C26" s="4" t="s">
         <v>131</v>
       </c>
@@ -1427,6 +1443,12 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C37" s="4" t="s">
         <v>131</v>
       </c>
@@ -1559,6 +1581,12 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C45" s="4" t="s">
         <v>131</v>
       </c>
@@ -1640,6 +1668,12 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C50" s="4" t="s">
         <v>131</v>
       </c>
@@ -1721,6 +1755,12 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C55" s="4" t="s">
         <v>131</v>
       </c>
@@ -1802,6 +1842,12 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="C60" s="4" t="s">
         <v>131</v>
       </c>
@@ -1849,18 +1895,31 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C63" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C64" s="1" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D64" s="2">
         <v>592634</v>
@@ -1972,6 +2031,12 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C71" s="4" t="s">
         <v>131</v>
       </c>
@@ -2087,6 +2152,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="C78" s="4" t="s">
         <v>131</v>
       </c>
@@ -2168,6 +2239,12 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="C83" s="4" t="s">
         <v>131</v>
       </c>
@@ -2208,18 +2285,28 @@
         <v>12</v>
       </c>
       <c r="D85" s="2">
-        <v>22501</v>
+        <v>22504</v>
       </c>
       <c r="E85" s="2">
-        <v>463833</v>
+        <v>468833</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C86" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
+      <c r="D86" s="6">
+        <v>0</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -2273,6 +2360,12 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="C90" s="4" t="s">
         <v>131</v>
       </c>
@@ -2337,6 +2430,12 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C94" s="4" t="s">
         <v>131</v>
       </c>
@@ -2384,11 +2483,21 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="C97" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
+      <c r="D97" s="6">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
@@ -2442,6 +2551,12 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C101" s="4" t="s">
         <v>131</v>
       </c>
@@ -2458,8 +2573,11 @@
       <c r="A102" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="B102" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C102" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D102" s="2">
         <v>12494165</v>
@@ -2724,6 +2842,12 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C118" s="4" t="s">
         <v>131</v>
       </c>
@@ -2873,6 +2997,12 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C127" s="4" t="s">
         <v>131</v>
       </c>
@@ -3022,6 +3152,12 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C136" s="4" t="s">
         <v>131</v>
       </c>
@@ -3137,6 +3273,12 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C143" s="4" t="s">
         <v>131</v>
       </c>
@@ -3235,6 +3377,12 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C149" s="4" t="s">
         <v>131</v>
       </c>
@@ -3299,6 +3447,12 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C153" s="4" t="s">
         <v>131</v>
       </c>
@@ -3346,11 +3500,21 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C156" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
+      <c r="D156" s="6">
+        <v>0</v>
+      </c>
+      <c r="E156" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
@@ -3387,18 +3551,31 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C159" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
+      <c r="D159" s="6">
+        <v>0</v>
+      </c>
+      <c r="E159" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="B160" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="C160" s="1" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="D160" s="2">
         <v>15173420</v>
@@ -3697,6 +3874,12 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C178" s="4" t="s">
         <v>131</v>
       </c>
@@ -3914,6 +4097,12 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="C191" s="4" t="s">
         <v>131</v>
       </c>
@@ -4029,6 +4218,12 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C198" s="4" t="s">
         <v>131</v>
       </c>
@@ -4045,8 +4240,11 @@
       <c r="A199" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="B199" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C199" s="1" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="D199" s="2">
         <v>1895533</v>
@@ -4141,6 +4339,12 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C205" s="4" t="s">
         <v>131</v>
       </c>
@@ -4341,6 +4545,12 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C217" s="4" t="s">
         <v>131</v>
       </c>
@@ -4439,6 +4649,12 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C223" s="4" t="s">
         <v>131</v>
       </c>
@@ -4588,6 +4804,12 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C232" s="4" t="s">
         <v>131</v>
       </c>
@@ -4652,6 +4874,12 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C236" s="4" t="s">
         <v>131</v>
       </c>
@@ -4716,6 +4944,12 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C240" s="4" t="s">
         <v>131</v>
       </c>
@@ -4780,6 +5014,12 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="C244" s="4" t="s">
         <v>131</v>
       </c>
@@ -4820,25 +5060,38 @@
         <v>48</v>
       </c>
       <c r="D246" s="2">
-        <v>14556</v>
+        <v>14356</v>
       </c>
       <c r="E246" s="2">
         <v>137134</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C247" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
+      <c r="D247" s="6">
+        <v>0</v>
+      </c>
+      <c r="E247" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="B248" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C248" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D248" s="2">
         <v>29180241</v>
@@ -5035,7 +5288,12 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="3"/>
+      <c r="A260" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C260" s="4" t="s">
         <v>131</v>
       </c>
@@ -5287,7 +5545,12 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="3"/>
+      <c r="A275" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C275" s="4" t="s">
         <v>131</v>
       </c>
@@ -5488,7 +5751,12 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="3"/>
+      <c r="A287" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C287" s="4" t="s">
         <v>131</v>
       </c>
@@ -5757,7 +6025,12 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="3"/>
+      <c r="A303" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C303" s="4" t="s">
         <v>131</v>
       </c>
@@ -6179,7 +6452,12 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="3"/>
+      <c r="A328" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="C328" s="4" t="s">
         <v>131</v>
       </c>
@@ -6414,7 +6692,12 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="3"/>
+      <c r="A342" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C342" s="4" t="s">
         <v>131</v>
       </c>
@@ -6564,7 +6847,12 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351" s="3"/>
+      <c r="A351" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C351" s="4" t="s">
         <v>131</v>
       </c>
@@ -6680,7 +6968,12 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="3"/>
+      <c r="A358" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C358" s="4" t="s">
         <v>131</v>
       </c>
@@ -6728,18 +7021,31 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C361" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D361" s="5"/>
-      <c r="E361" s="5"/>
+      <c r="D361" s="6">
+        <v>0</v>
+      </c>
+      <c r="E361" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="B362" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C362" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D362" s="2">
         <v>37766409</v>
@@ -7089,6 +7395,12 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C383" s="4" t="s">
         <v>131</v>
       </c>
@@ -7204,6 +7516,12 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="C390" s="4" t="s">
         <v>131</v>
       </c>
@@ -7251,11 +7569,21 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C393" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D393" s="5"/>
-      <c r="E393" s="5"/>
+      <c r="D393" s="6">
+        <v>0</v>
+      </c>
+      <c r="E393" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
@@ -7292,11 +7620,21 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C396" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D396" s="5"/>
-      <c r="E396" s="5"/>
+      <c r="D396" s="6">
+        <v>0</v>
+      </c>
+      <c r="E396" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
